--- a/tests/regression_data_windows/performance_analysis_critical_mach_number_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_critical_mach_number_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015461016597947</v>
+        <v>2.015461016569507</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961707</v>
+        <v>2.299999999899931</v>
       </c>
       <c r="D2" t="n">
-        <v>2.737065943079645</v>
+        <v>2.737065943052595</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56376337782805</v>
+        <v>92.56376337314919</v>
       </c>
       <c r="F2" t="n">
-        <v>79.09413211336732</v>
+        <v>79.09413211055887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455173252785781</v>
+        <v>0.1455173252657267</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.2396494386459</v>
+        <v>-78.2396494358246</v>
       </c>
       <c r="I2" t="n">
-        <v>136037.5212891244</v>
+        <v>136037.5212829495</v>
       </c>
       <c r="J2" t="n">
-        <v>83.61249003633949</v>
+        <v>83.61249003254429</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.49242669579841</v>
+        <v>-24.49242669350471</v>
       </c>
       <c r="M2" t="n">
-        <v>135.234326269795</v>
+        <v>135.2343262638234</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372082.4786628254</v>
+        <v>372082.4786645902</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7155777079508036</v>
+        <v>0.7155777079472676</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069685994825397</v>
+        <v>2.069685994696714</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999957172</v>
+        <v>2.399999999883481</v>
       </c>
       <c r="D3" t="n">
-        <v>2.739856258960444</v>
+        <v>2.739856258986597</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53315093959309</v>
+        <v>92.53315092943187</v>
       </c>
       <c r="F3" t="n">
-        <v>78.21512357257023</v>
+        <v>78.21512356386894</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1547340301463403</v>
+        <v>0.1547340301475547</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.36985760271658</v>
+        <v>-77.36985759401649</v>
       </c>
       <c r="I3" t="n">
-        <v>140717.8707456404</v>
+        <v>140717.8707313289</v>
       </c>
       <c r="J3" t="n">
-        <v>86.4891645640076</v>
+        <v>86.48916455521137</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.92738856704577</v>
+        <v>-26.92738856716108</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5519907081711</v>
+        <v>142.5519907087305</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370424.8496195124</v>
+        <v>370424.8496252261</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7033060664803839</v>
+        <v>0.7033060664837403</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.53202494058738</v>
+        <v>80.53202493648743</v>
       </c>
       <c r="D2" t="n">
-        <v>80.53202494058738</v>
+        <v>80.53202493648743</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.53202494058738</v>
+        <v>80.53202493648743</v>
       </c>
       <c r="H2" t="n">
-        <v>80.53202494058738</v>
+        <v>80.53202493648743</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3667825468701</v>
+        <v>292.3667825471994</v>
       </c>
       <c r="L2" t="n">
-        <v>132795.2111625588</v>
+        <v>132795.211163082</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583128611413727</v>
+        <v>1.583128611418179</v>
       </c>
       <c r="N2" t="n">
-        <v>334660.2221710025</v>
+        <v>334660.2221712382</v>
       </c>
       <c r="O2" t="n">
-        <v>418541.7275680739</v>
+        <v>418541.7275684042</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687457.6460250475</v>
+        <v>-687457.6460259624</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7135574397028</v>
+        <v>717.7135574397175</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.648414819518</v>
+        <v>1006.648414819536</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576841951449</v>
+        <v>1.402576841951444</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980646704519</v>
+        <v>0.9994980646704541</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9166260125878</v>
+        <v>342.916626012781</v>
       </c>
       <c r="W2" t="n">
-        <v>186162.9626718765</v>
+        <v>186162.9626726099</v>
       </c>
       <c r="X2" t="n">
-        <v>5.371637761065075e-06</v>
+        <v>5.371637761043915e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132729.2431357003</v>
+        <v>132729.2431362236</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534134727021806e-06</v>
+        <v>7.5341347269921e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433292028088158</v>
+        <v>0.003433292028084296</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817211087539319e-05</v>
+        <v>1.81721108754093e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582538588508894</v>
+        <v>0.02582538588511375</v>
       </c>
       <c r="AD2" t="n">
-        <v>132795.2111625588</v>
+        <v>132795.211163082</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583128611413727</v>
+        <v>1.583128611418179</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583128611413727</v>
+        <v>1.583128611418179</v>
       </c>
       <c r="AG2" t="n">
-        <v>334660.2221710025</v>
+        <v>334660.2221712382</v>
       </c>
       <c r="AH2" t="n">
-        <v>418541.7275680739</v>
+        <v>418541.7275684042</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7135574397028</v>
+        <v>717.7135574397175</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.648414819518</v>
+        <v>1006.648414819536</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9166260125878</v>
+        <v>342.916626012781</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980646704519</v>
+        <v>0.9994980646704541</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817211087539319e-05</v>
+        <v>1.81721108754093e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582538588508894</v>
+        <v>0.02582538588511375</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2348443290050078</v>
+        <v>0.2348443289929193</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2348443290050078</v>
+        <v>0.2348443289929193</v>
       </c>
       <c r="DH2" t="n">
-        <v>183534.2742844959</v>
+        <v>183534.2742755055</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.737065943086948</v>
+        <v>2.737065942955299</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>268.359912197718</v>
+        <v>268.3599121944924</v>
       </c>
       <c r="DV2" t="n">
-        <v>110.3833379394801</v>
+        <v>110.3833379388941</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.6069524361592</v>
+        <v>244.6069524328849</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.71185739886582</v>
+        <v>65.7118573986923</v>
       </c>
       <c r="DY2" t="n">
-        <v>268.359912197718</v>
+        <v>268.3599121944924</v>
       </c>
       <c r="DZ2" t="n">
-        <v>110.3833379394801</v>
+        <v>110.3833379388941</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.6069524361592</v>
+        <v>244.6069524328849</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.71185739886582</v>
+        <v>65.7118573986923</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.6680857973368</v>
+        <v>259.6680857982046</v>
       </c>
       <c r="ED2" t="n">
-        <v>86032.52134614428</v>
+        <v>86032.52134839048</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.154998165437642</v>
+        <v>1.154998165463944</v>
       </c>
       <c r="EF2" t="n">
-        <v>311288.7600696505</v>
+        <v>311288.7600702673</v>
       </c>
       <c r="EG2" t="n">
-        <v>385775.9098510059</v>
+        <v>385775.9098518711</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.598903899747</v>
+        <v>3788.598903895591</v>
       </c>
       <c r="EI2" t="n">
-        <v>-598002.3153785301</v>
+        <v>-598002.315379873</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5399202223302</v>
+        <v>716.5399202223581</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.20803883139</v>
+        <v>1005.208038831447</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402863972351311</v>
+        <v>1.402863972351337</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993245345872503</v>
+        <v>0.9993245345872445</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.1486169228785</v>
+        <v>323.1486169234195</v>
       </c>
       <c r="EO2" t="n">
-        <v>120610.7164809138</v>
+        <v>120610.7164840643</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.291137215474933e-06</v>
+        <v>8.29113721525836e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>85974.63393315367</v>
+        <v>85974.63393539787</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.163133768941095e-05</v>
+        <v>1.163133768910734e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003864520381996836</v>
+        <v>0.003864520381984141</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.65337944315695e-05</v>
+        <v>1.653379443161422e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02331488829244842</v>
+        <v>0.02331488829251675</v>
       </c>
       <c r="EV2" t="n">
-        <v>86032.52134614428</v>
+        <v>86032.52134839048</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.154998165437642</v>
+        <v>1.154998165463944</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.154998165437642</v>
+        <v>1.154998165463944</v>
       </c>
       <c r="EY2" t="n">
-        <v>311288.7600696505</v>
+        <v>311288.7600702673</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385775.9098510059</v>
+        <v>385775.9098518711</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.598903899747</v>
+        <v>3788.598903895591</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5399202223302</v>
+        <v>716.5399202223581</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.20803883139</v>
+        <v>1005.208038831447</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.1486169228785</v>
+        <v>323.1486169234195</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993245345872503</v>
+        <v>0.9993245345872445</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.65337944315695e-05</v>
+        <v>1.653379443161422e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02331488829244842</v>
+        <v>0.02331488829251675</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937263429229</v>
+        <v>295.5937263429274</v>
       </c>
       <c r="FK2" t="n">
-        <v>135294.1527839187</v>
+        <v>135294.1527858786</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595260577477948</v>
+        <v>1.595260577501045</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3663917399</v>
+        <v>336974.3663917391</v>
       </c>
       <c r="FN2" t="n">
         <v>421784.431088389</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.598903904948</v>
+        <v>3788.598903900792</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698101.6365355878</v>
+        <v>-698101.6365343765</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561885058041</v>
+        <v>717.8561885058092</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777156996053</v>
+        <v>1006.777156996086</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477506102761</v>
+        <v>1.402477506102796</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302725861877</v>
+        <v>0.999530272586181</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027870808182</v>
+        <v>344.8027870808228</v>
       </c>
       <c r="FV2" t="n">
-        <v>189658.8741418949</v>
+        <v>189658.8741446458</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272624360576145e-06</v>
+        <v>5.272624360499666e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135231.3126710486</v>
+        <v>135231.3126730067</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.394737063837495e-06</v>
+        <v>7.394737063730421e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00339562020741675</v>
+        <v>0.00339562020741688</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925705699661e-05</v>
+        <v>1.832925705699711e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606729865941641</v>
+        <v>0.02606729865941737</v>
       </c>
       <c r="GC2" t="n">
-        <v>135294.1527839187</v>
+        <v>135294.1527858786</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595260577477948</v>
+        <v>1.595260577501045</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595260577477948</v>
+        <v>1.595260577501045</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3663917399</v>
+        <v>336974.3663917391</v>
       </c>
       <c r="GG2" t="n">
         <v>421784.431088389</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.598903904948</v>
+        <v>3788.598903900792</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561885058041</v>
+        <v>717.8561885058092</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777156996053</v>
+        <v>1006.777156996086</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027870808182</v>
+        <v>344.8027870808228</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302725861877</v>
+        <v>0.999530272586181</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925705699661e-05</v>
+        <v>1.832925705699711e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606729865941641</v>
+        <v>0.02606729865941737</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937263429229</v>
+        <v>295.5937263429274</v>
       </c>
       <c r="GR2" t="n">
-        <v>135294.1527839187</v>
+        <v>135294.1527858786</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595260577477948</v>
+        <v>1.595260577501045</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3663917399</v>
+        <v>336974.3663917391</v>
       </c>
       <c r="GU2" t="n">
         <v>421784.431088389</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.598903904948</v>
+        <v>3788.598903900792</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698101.6365355878</v>
+        <v>-698101.6365343765</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561885058041</v>
+        <v>717.8561885058092</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777156996053</v>
+        <v>1006.777156996086</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477506102761</v>
+        <v>1.402477506102796</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302725861877</v>
+        <v>0.999530272586181</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027870808182</v>
+        <v>344.8027870808228</v>
       </c>
       <c r="HC2" t="n">
-        <v>189658.8741418949</v>
+        <v>189658.8741446458</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272624360576145e-06</v>
+        <v>5.272624360499666e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135231.3126710486</v>
+        <v>135231.3126730067</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.394737063837495e-06</v>
+        <v>7.394737063730421e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00339562020741675</v>
+        <v>0.00339562020741688</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925705699661e-05</v>
+        <v>1.832925705699711e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606729865941641</v>
+        <v>0.02606729865941737</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135294.1527839187</v>
+        <v>135294.1527858786</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595260577477948</v>
+        <v>1.595260577501045</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595260577477948</v>
+        <v>1.595260577501045</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3663917399</v>
+        <v>336974.3663917391</v>
       </c>
       <c r="HN2" t="n">
         <v>421784.431088389</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.598903904948</v>
+        <v>3788.598903900792</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561885058041</v>
+        <v>717.8561885058092</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777156996053</v>
+        <v>1006.777156996086</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027870808182</v>
+        <v>344.8027870808228</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302725861877</v>
+        <v>0.999530272586181</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925705699661e-05</v>
+        <v>1.832925705699711e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606729865941641</v>
+        <v>0.02606729865941737</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.830453537920491</v>
+        <v>0.8304535379091192</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.830453537920491</v>
+        <v>0.8304535379091192</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490415.447552676</v>
+        <v>490415.4475566231</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.737065943010843</v>
+        <v>2.737065943058644</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01595401972232894</v>
+        <v>0.01595401972227841</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.786755949425342e-07</v>
+        <v>-1.786755949460734e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379134453100929</v>
+        <v>0.01379134453100263</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.0251829021128466</v>
+        <v>0.02518290211294599</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05492808769058988</v>
+        <v>0.05492808769063208</v>
       </c>
       <c r="II2" t="n">
-        <v>-2.538018406550435e-12</v>
+        <v>-4.204674802776864e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384304.7525436436</v>
+        <v>384304.7525455774</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>268.359912197718</v>
+        <v>268.3599121944924</v>
       </c>
       <c r="IN2" t="n">
-        <v>110.3833379394801</v>
+        <v>110.3833379388941</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.6069524361592</v>
+        <v>244.6069524328849</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.71185739886582</v>
+        <v>65.7118573986923</v>
       </c>
       <c r="IQ2" t="n">
-        <v>135.9174986714995</v>
+        <v>135.9174986691132</v>
       </c>
       <c r="IR2" t="n">
-        <v>110.3833379394801</v>
+        <v>110.3833379388941</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.30375243615916</v>
+        <v>79.30375243288486</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.69496007039369</v>
+        <v>35.69496006941684</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.6680857974367</v>
+        <v>259.6680857981044</v>
       </c>
       <c r="IV2" t="n">
-        <v>86032.52134625983</v>
+        <v>86032.52134827439</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.154998165438748</v>
+        <v>1.154998165462832</v>
       </c>
       <c r="IX2" t="n">
-        <v>311288.7600697219</v>
+        <v>311288.7600701958</v>
       </c>
       <c r="IY2" t="n">
-        <v>385775.909851106</v>
+        <v>385775.9098517709</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.598903899748</v>
+        <v>3788.598903895592</v>
       </c>
       <c r="JA2" t="n">
-        <v>-598002.3153788085</v>
+        <v>-598002.3153795939</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5399202223329</v>
+        <v>716.5399202223552</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.208038831393</v>
+        <v>1005.208038831443</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402863972351311</v>
+        <v>1.402863972351337</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993245345872508</v>
+        <v>0.999324534587244</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.1486169229407</v>
+        <v>323.1486169233571</v>
       </c>
       <c r="JG2" t="n">
-        <v>120610.7164810757</v>
+        <v>120610.7164839015</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.291137215463798e-06</v>
+        <v>8.291137215269548e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>85974.63393326919</v>
+        <v>85974.63393528179</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.163133768939532e-05</v>
+        <v>1.163133768912304e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003864520381995352</v>
+        <v>0.00386452038198563</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.653379443157463e-05</v>
+        <v>1.653379443160909e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02331488829245624</v>
+        <v>0.02331488829250891</v>
       </c>
       <c r="JN2" t="n">
-        <v>86032.52134625983</v>
+        <v>86032.52134827439</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.154998165438748</v>
+        <v>1.154998165462832</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.154998165438748</v>
+        <v>1.154998165462832</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311288.7600697219</v>
+        <v>311288.7600701958</v>
       </c>
       <c r="JR2" t="n">
-        <v>385775.909851106</v>
+        <v>385775.9098517709</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.598903899748</v>
+        <v>3788.598903895592</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5399202223329</v>
+        <v>716.5399202223552</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.208038831393</v>
+        <v>1005.208038831443</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.1486169229407</v>
+        <v>323.1486169233571</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993245345872508</v>
+        <v>0.999324534587244</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.653379443157463e-05</v>
+        <v>1.653379443160909e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02331488829245624</v>
+        <v>0.02331488829250891</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937263429229</v>
+        <v>295.5937263428272</v>
       </c>
       <c r="KC2" t="n">
-        <v>135294.152783918</v>
+        <v>135294.1527857177</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595260577477941</v>
+        <v>1.595260577499689</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3663917399</v>
+        <v>336974.3663916672</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310882883</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.598903904949</v>
+        <v>3788.598903900792</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698101.6365355882</v>
+        <v>-698101.6365340976</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561885058041</v>
+        <v>717.8561885058044</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777156996053</v>
+        <v>1006.77715699608</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477506102761</v>
+        <v>1.402477506102797</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302725861877</v>
+        <v>0.9995302725861803</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027870808182</v>
+        <v>344.8027870807643</v>
       </c>
       <c r="KN2" t="n">
-        <v>189658.874141894</v>
+        <v>189658.8741444203</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272624360576168e-06</v>
+        <v>5.272624360505937e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135231.3126710479</v>
+        <v>135231.3126728457</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.394737063837531e-06</v>
+        <v>7.394737063739223e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.00339562020741675</v>
+        <v>0.00339562020741803</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925705699661e-05</v>
+        <v>1.832925705699223e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606729865941641</v>
+        <v>0.02606729865940985</v>
       </c>
       <c r="KU2" t="n">
-        <v>135294.152783918</v>
+        <v>135294.1527857177</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595260577477941</v>
+        <v>1.595260577499689</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595260577477941</v>
+        <v>1.595260577499689</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3663917399</v>
+        <v>336974.3663916672</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310882883</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.598903904949</v>
+        <v>3788.598903900792</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561885058041</v>
+        <v>717.8561885058044</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777156996053</v>
+        <v>1006.77715699608</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027870808182</v>
+        <v>344.8027870807643</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302725861877</v>
+        <v>0.9995302725861803</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925705699661e-05</v>
+        <v>1.832925705699223e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606729865941641</v>
+        <v>0.02606729865940985</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.8879241072212</v>
+        <v>268.8879241077651</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97181.17776633881</v>
+        <v>97181.17776842824</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259879872190854</v>
+        <v>1.259879872215401</v>
       </c>
       <c r="LL2" t="n">
-        <v>317877.4201707435</v>
+        <v>317877.4201711289</v>
       </c>
       <c r="LM2" t="n">
-        <v>395012.6930736645</v>
+        <v>395012.6930742055</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.598903899748</v>
+        <v>3788.598903895591</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623695.8014708323</v>
+        <v>-623695.8014712344</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8092871078029</v>
+        <v>716.8092871078246</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.541587959902</v>
+        <v>1005.541587959952</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402802120515322</v>
+        <v>1.402802120515348</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993681217857528</v>
+        <v>0.9993681217857465</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8426615527819</v>
+        <v>328.8426615531156</v>
       </c>
       <c r="LU2" t="n">
-        <v>136240.2547114801</v>
+        <v>136240.2547144111</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.339974533354541e-06</v>
+        <v>7.339974533196633e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97120.08038698432</v>
+        <v>97120.08038907184</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.029653183991821e-05</v>
+        <v>1.029653183969689e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003732261706924965</v>
+        <v>0.00373226170691762</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700359847868265e-05</v>
+        <v>1.70035984787104e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02403201725594785</v>
+        <v>0.02403201725599044</v>
       </c>
       <c r="MB2" t="n">
-        <v>97181.17776633881</v>
+        <v>97181.17776842824</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.259879872190854</v>
+        <v>1.259879872215401</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.259879872190854</v>
+        <v>1.259879872215401</v>
       </c>
       <c r="ME2" t="n">
-        <v>317877.4201707435</v>
+        <v>317877.4201711289</v>
       </c>
       <c r="MF2" t="n">
-        <v>395012.6930736645</v>
+        <v>395012.6930742055</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.598903899748</v>
+        <v>3788.598903895591</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8092871078029</v>
+        <v>716.8092871078246</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.541587959902</v>
+        <v>1005.541587959952</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8426615527819</v>
+        <v>328.8426615531156</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993681217857528</v>
+        <v>0.9993681217857465</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700359847868265e-05</v>
+        <v>1.70035984787104e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02403201725594785</v>
+        <v>0.02403201725599044</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8304535379203313</v>
+        <v>0.8304535379092797</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4206036837345059</v>
+        <v>0.4206036837265793</v>
       </c>
       <c r="MR2" t="n">
-        <v>247433.5269293125</v>
+        <v>247433.5269296121</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.737065943013465</v>
+        <v>2.737065943056008</v>
       </c>
       <c r="MT2" t="n">
-        <v>381350.1191084441</v>
+        <v>381350.1191089853</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.234326269795</v>
+        <v>135.2343262638234</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.0654110277745</v>
+        <v>123.0654110245847</v>
       </c>
       <c r="MX2" t="n">
-        <v>-56.06449509458082</v>
+        <v>-56.0644950871785</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.49242669579841</v>
+        <v>-24.49242669350471</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.2760387855953</v>
+        <v>253.2760387775756</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.0654110277745</v>
+        <v>123.0654110245847</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.3676950945808</v>
+        <v>-221.3676950871785</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.92891175597168</v>
+        <v>-60.92891175578873</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8550748426379</v>
+        <v>236.8550748451977</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999999987</v>
+        <v>60000.00000161141</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.883138199845522</v>
+        <v>0.8831381998596848</v>
       </c>
       <c r="NG2" t="n">
-        <v>294998.7806200492</v>
+        <v>294998.7806218793</v>
       </c>
       <c r="NH2" t="n">
-        <v>362938.3171620027</v>
+        <v>362938.3171645681</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.918289188037</v>
+        <v>3799.918289191164</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537091.6136195381</v>
+        <v>-537091.6136274406</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.032522856737</v>
+        <v>716.0325228567776</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487934518086</v>
+        <v>1004.487934518128</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852387920182</v>
+        <v>1.402852387920161</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718552126348</v>
+        <v>0.9992718552126496</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6095781311741</v>
+        <v>308.6095781328441</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96885928648</v>
+        <v>84109.96886154561</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919712564596e-05</v>
+        <v>1.188919712532663e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.3928347336</v>
+        <v>59956.39283634486</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878857816619e-05</v>
+        <v>1.667878857771797e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.00423540149307542</v>
+        <v>0.004235401493029593</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534201683283813e-05</v>
+        <v>1.534201683297411e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150500262377587</v>
+        <v>0.02150500262398143</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999999987</v>
+        <v>60000.00000161141</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.883138199845522</v>
+        <v>0.8831381998596848</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.883138199845522</v>
+        <v>0.8831381998596848</v>
       </c>
       <c r="NZ2" t="n">
-        <v>294998.7806200492</v>
+        <v>294998.7806218793</v>
       </c>
       <c r="OA2" t="n">
-        <v>362938.3171620027</v>
+        <v>362938.3171645681</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.918289188037</v>
+        <v>3799.918289191164</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.032522856737</v>
+        <v>716.0325228567776</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487934518086</v>
+        <v>1004.487934518128</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6095781311741</v>
+        <v>308.6095781328441</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718552126348</v>
+        <v>0.9992718552126496</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534201683283813e-05</v>
+        <v>1.534201683297411e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150500262377587</v>
+        <v>0.02150500262398143</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9866206919714</v>
+        <v>245.9866206937311</v>
       </c>
       <c r="OL2" t="n">
-        <v>68470.68678641229</v>
+        <v>68470.68678737845</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9703791408162958</v>
+        <v>0.970379140823034</v>
       </c>
       <c r="ON2" t="n">
-        <v>301521.7216284009</v>
+        <v>301521.7216296599</v>
       </c>
       <c r="OO2" t="n">
-        <v>372082.4786628254</v>
+        <v>372082.4786645902</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.918289196607</v>
+        <v>3799.918289199735</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562646.5802022652</v>
+        <v>-562646.5802079564</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2041572021876</v>
+        <v>716.2041572022209</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.719204882697</v>
+        <v>1004.719204882726</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402839113371777</v>
+        <v>1.402839113371752</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992991436744176</v>
+        <v>0.999299143674431</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5094394895451</v>
+        <v>314.5094394906715</v>
       </c>
       <c r="OW2" t="n">
-        <v>95986.20506627126</v>
+        <v>95986.20506762528</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041816372789793e-05</v>
+        <v>1.041816372775097e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68422.81780664412</v>
+        <v>68422.81780761053</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.461500756700634e-05</v>
+        <v>1.461500756679992e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004078483783250555</v>
+        <v>0.004078483783221293</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.58239558306952e-05</v>
+        <v>1.582395583078729e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223504910978904</v>
+        <v>0.02223504910992864</v>
       </c>
       <c r="PD2" t="n">
-        <v>68470.68678641229</v>
+        <v>68470.68678737845</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9703791408162958</v>
+        <v>0.970379140823034</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9703791408162958</v>
+        <v>0.970379140823034</v>
       </c>
       <c r="PG2" t="n">
-        <v>301521.7216284009</v>
+        <v>301521.7216296599</v>
       </c>
       <c r="PH2" t="n">
-        <v>372082.4786628254</v>
+        <v>372082.4786645902</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.918289196607</v>
+        <v>3799.918289199735</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2041572021876</v>
+        <v>716.2041572022209</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.719204882697</v>
+        <v>1004.719204882726</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5094394895451</v>
+        <v>314.5094394906715</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992991436744176</v>
+        <v>0.999299143674431</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.58239558306952e-05</v>
+        <v>1.582395583078729e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223504910978904</v>
+        <v>0.02223504910992864</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.8773570199542</v>
+        <v>268.8773570206913</v>
       </c>
       <c r="PS2" t="n">
-        <v>93421.26342985702</v>
+        <v>93421.26342973683</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.211153726623904</v>
+        <v>1.211153726619013</v>
       </c>
       <c r="PU2" t="n">
-        <v>317878.5841851818</v>
+        <v>317878.5841857112</v>
       </c>
       <c r="PV2" t="n">
-        <v>395012.693073464</v>
+        <v>395012.6930742056</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.918289188036</v>
+        <v>3799.918289191164</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626699.2934152014</v>
+        <v>-626699.2934181015</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7969255531513</v>
+        <v>716.796925553171</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.46415841024</v>
+        <v>1005.464158410248</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402718291005957</v>
+        <v>1.402718291005928</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993923161032597</v>
+        <v>0.99939231610327</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8342954681277</v>
+        <v>328.8342954685783</v>
       </c>
       <c r="QD2" t="n">
-        <v>130964.4673502146</v>
+        <v>130964.4673500448</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.635658894605974e-06</v>
+        <v>7.635658894615877e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93364.7676728402</v>
+        <v>93364.76767272101</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.071067839534613e-05</v>
+        <v>1.07106783953598e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003731897902519721</v>
+        <v>0.003731897902509372</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700249425000658e-05</v>
+        <v>1.700249425004372e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02402987210319137</v>
+        <v>0.02402987210324802</v>
       </c>
       <c r="QK2" t="n">
-        <v>93421.26342985702</v>
+        <v>93421.26342973683</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.211153726623904</v>
+        <v>1.211153726619013</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.211153726623904</v>
+        <v>1.211153726619013</v>
       </c>
       <c r="QN2" t="n">
-        <v>317878.5841851818</v>
+        <v>317878.5841857112</v>
       </c>
       <c r="QO2" t="n">
-        <v>395012.693073464</v>
+        <v>395012.6930742056</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.918289188036</v>
+        <v>3799.918289191164</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7969255531513</v>
+        <v>716.796925553171</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.46415841024</v>
+        <v>1005.464158410248</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8342954681277</v>
+        <v>328.8342954685783</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993923161032597</v>
+        <v>0.99939231610327</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700249425000658e-05</v>
+        <v>1.700249425004372e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02402987210319137</v>
+        <v>0.02402987210324802</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4382052141373065</v>
+        <v>0.4382052141155853</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8207005120169688</v>
+        <v>0.8207005119865413</v>
       </c>
       <c r="RA2" t="n">
-        <v>379939.7495840255</v>
+        <v>379939.7495747207</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.737065943079645</v>
+        <v>2.737065943052595</v>
       </c>
       <c r="RC2" t="n">
-        <v>381350.1191084441</v>
+        <v>381350.1191089853</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.0243824170280734</v>
+        <v>0.024382417027909</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001899441189367724</v>
+        <v>0.001899441188775779</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01189653595464985</v>
+        <v>0.01189653595467934</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03194002580814421</v>
+        <v>0.03194002580783483</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04238224442778565</v>
+        <v>0.04238224442705585</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1125006644080208</v>
+        <v>0.1125006644062548</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-1.416054218328355e-10</v>
+        <v>-6.789592499334418e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360272.3128509006</v>
+        <v>360272.3128517315</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.61892404737108</v>
+        <v>80.61892404325017</v>
       </c>
       <c r="D3" t="n">
-        <v>80.61892404737108</v>
+        <v>80.61892404325017</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.61892404737108</v>
+        <v>80.61892404325017</v>
       </c>
       <c r="H3" t="n">
-        <v>80.61892404737108</v>
+        <v>80.61892404325017</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3598005569998</v>
+        <v>292.359800557331</v>
       </c>
       <c r="L3" t="n">
-        <v>132784.126526156</v>
+        <v>132784.1265266813</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583034346611986</v>
+        <v>1.583034346616452</v>
       </c>
       <c r="N3" t="n">
-        <v>334655.2274951276</v>
+        <v>334655.2274953643</v>
       </c>
       <c r="O3" t="n">
-        <v>418534.7256313121</v>
+        <v>418534.725631644</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687438.235671207</v>
+        <v>-687438.2356721282</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7132413812285</v>
+        <v>717.7132413812437</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.648048090493</v>
+        <v>1006.64804809051</v>
       </c>
       <c r="T3" t="n">
-        <v>1.40257694863371</v>
+        <v>1.402576948633705</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994980159016482</v>
+        <v>0.9994980159016505</v>
       </c>
       <c r="V3" t="n">
-        <v>342.912527605623</v>
+        <v>342.9125276058174</v>
       </c>
       <c r="W3" t="n">
-        <v>186147.428299004</v>
+        <v>186147.4282997401</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372086034912739e-06</v>
+        <v>5.372086034891498e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132718.1574460749</v>
+        <v>132718.1574466002</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.534764038645678e-06</v>
+        <v>7.534764038615852e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433373887798947</v>
+        <v>0.003433373887795063</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817176925475244e-05</v>
+        <v>1.817176925476864e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582485968177947</v>
+        <v>0.02582485968180442</v>
       </c>
       <c r="AD3" t="n">
-        <v>132784.126526156</v>
+        <v>132784.1265266813</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583034346611986</v>
+        <v>1.583034346616452</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583034346611986</v>
+        <v>1.583034346616452</v>
       </c>
       <c r="AG3" t="n">
-        <v>334655.2274951276</v>
+        <v>334655.2274953643</v>
       </c>
       <c r="AH3" t="n">
-        <v>418534.7256313121</v>
+        <v>418534.725631644</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7132413812285</v>
+        <v>717.7132413812437</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.648048090493</v>
+        <v>1006.64804809051</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.912527605623</v>
+        <v>342.9125276058174</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994980159016482</v>
+        <v>0.9994980159016505</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817176925475244e-05</v>
+        <v>1.817176925476864e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582485968177947</v>
+        <v>0.02582485968180442</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2351005505989834</v>
+        <v>0.2351005505868328</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2351005505989834</v>
+        <v>0.2351005505868328</v>
       </c>
       <c r="DH3" t="n">
-        <v>183724.8331143463</v>
+        <v>183724.8331053094</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.739856258968485</v>
+        <v>2.739856258836162</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>270.0096461582981</v>
+        <v>270.0096461219164</v>
       </c>
       <c r="DV3" t="n">
-        <v>110.9901773532149</v>
+        <v>110.9901773397987</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.1430266118283</v>
+        <v>246.1430265779686</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.72855740591538</v>
+        <v>65.72855740555717</v>
       </c>
       <c r="DY3" t="n">
-        <v>270.0096461582981</v>
+        <v>270.0096461219164</v>
       </c>
       <c r="DZ3" t="n">
-        <v>110.9901773532149</v>
+        <v>110.9901773397987</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.1430266118283</v>
+        <v>246.1430265779686</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.72855740591538</v>
+        <v>65.72855740555718</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.2247043028132</v>
+        <v>259.2247043126209</v>
       </c>
       <c r="ED3" t="n">
-        <v>85502.96500468506</v>
+        <v>85502.96501629625</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.14985423753114</v>
+        <v>1.149854237643737</v>
       </c>
       <c r="EF3" t="n">
-        <v>310971.9971210546</v>
+        <v>310971.9971280617</v>
       </c>
       <c r="EG3" t="n">
-        <v>385331.826579325</v>
+        <v>385331.8265891485</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.658382551285</v>
+        <v>3788.658382550226</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596782.0223419063</v>
+        <v>-596782.0223689666</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5279782001992</v>
+        <v>716.5279782004619</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.192689978034</v>
+        <v>1005.192689978371</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402865932050432</v>
+        <v>1.402865932050388</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993227334871307</v>
+        <v>0.999322733487171</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.8722512723868</v>
+        <v>322.8722512785027</v>
       </c>
       <c r="EO3" t="n">
-        <v>119868.2690121082</v>
+        <v>119868.2690283872</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.342491371915844e-06</v>
+        <v>8.342491370782871e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85445.2776088934</v>
+        <v>85445.27762050022</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.170339693408541e-05</v>
+        <v>1.170339693249563e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0038711144963529</v>
+        <v>0.003871114496206777</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.651103424280383e-05</v>
+        <v>1.651103424330745e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02328019875831514</v>
+        <v>0.02328019875908265</v>
       </c>
       <c r="EV3" t="n">
-        <v>85502.96500468506</v>
+        <v>85502.96501629625</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.14985423753114</v>
+        <v>1.149854237643737</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.14985423753114</v>
+        <v>1.149854237643737</v>
       </c>
       <c r="EY3" t="n">
-        <v>310971.9971210546</v>
+        <v>310971.9971280617</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385331.826579325</v>
+        <v>385331.8265891485</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.658382551285</v>
+        <v>3788.658382550226</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5279782001992</v>
+        <v>716.5279782004619</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.192689978034</v>
+        <v>1005.192689978371</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.8722512723868</v>
+        <v>322.8722512785027</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993227334871307</v>
+        <v>0.999322733487171</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.651103424280383e-05</v>
+        <v>1.651103424330745e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02328019875831514</v>
+        <v>0.02328019875908265</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936613164599</v>
+        <v>295.5936613164611</v>
       </c>
       <c r="FK3" t="n">
-        <v>135266.1085927642</v>
+        <v>135266.1085932632</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594930105465085</v>
+        <v>1.594930105470965</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3769493707</v>
+        <v>336974.3769493705</v>
       </c>
       <c r="FN3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.658382556485</v>
+        <v>3788.658382555427</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698118.9716885785</v>
+        <v>-698118.9716882703</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8561154590132</v>
+        <v>717.8561154590144</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776696540501</v>
+        <v>1006.776696540509</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402477007382942</v>
+        <v>1.402477007382952</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995303680440643</v>
+        <v>0.9995303680440626</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8027204047031</v>
+        <v>344.8027204047043</v>
       </c>
       <c r="FV3" t="n">
-        <v>189619.5113320915</v>
+        <v>189619.5113327919</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.273718896198623e-06</v>
+        <v>5.273718896179146e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135203.2941245335</v>
+        <v>135203.294125032</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.396269495319519e-06</v>
+        <v>7.396269495292249e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395618357235026</v>
+        <v>0.003395618357235059</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.83292498574846e-05</v>
+        <v>1.832924985748473e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672848187311</v>
+        <v>0.02606728481873135</v>
       </c>
       <c r="GC3" t="n">
-        <v>135266.1085927642</v>
+        <v>135266.1085932632</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594930105465085</v>
+        <v>1.594930105470965</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594930105465085</v>
+        <v>1.594930105470965</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3769493707</v>
+        <v>336974.3769493705</v>
       </c>
       <c r="GG3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.658382556485</v>
+        <v>3788.658382555427</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8561154590132</v>
+        <v>717.8561154590144</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776696540501</v>
+        <v>1006.776696540509</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8027204047031</v>
+        <v>344.8027204047043</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995303680440643</v>
+        <v>0.9995303680440626</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.83292498574846e-05</v>
+        <v>1.832924985748473e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672848187311</v>
+        <v>0.02606728481873135</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936613164599</v>
+        <v>295.5936613164611</v>
       </c>
       <c r="GR3" t="n">
-        <v>135266.1085927642</v>
+        <v>135266.1085932632</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594930105465085</v>
+        <v>1.594930105470965</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3769493707</v>
+        <v>336974.3769493705</v>
       </c>
       <c r="GU3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.658382556485</v>
+        <v>3788.658382555427</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698118.9716885785</v>
+        <v>-698118.9716882703</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8561154590132</v>
+        <v>717.8561154590144</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776696540501</v>
+        <v>1006.776696540509</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402477007382942</v>
+        <v>1.402477007382952</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995303680440643</v>
+        <v>0.9995303680440626</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8027204047031</v>
+        <v>344.8027204047043</v>
       </c>
       <c r="HC3" t="n">
-        <v>189619.5113320915</v>
+        <v>189619.5113327919</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.273718896198623e-06</v>
+        <v>5.273718896179146e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135203.2941245335</v>
+        <v>135203.294125032</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.396269495319519e-06</v>
+        <v>7.396269495292249e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395618357235026</v>
+        <v>0.003395618357235059</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.83292498574846e-05</v>
+        <v>1.832924985748473e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672848187311</v>
+        <v>0.02606728481873135</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135266.1085927642</v>
+        <v>135266.1085932632</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594930105465085</v>
+        <v>1.594930105470965</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594930105465085</v>
+        <v>1.594930105470965</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3769493707</v>
+        <v>336974.3769493705</v>
       </c>
       <c r="HN3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.658382556485</v>
+        <v>3788.658382555427</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8561154590132</v>
+        <v>717.8561154590144</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776696540501</v>
+        <v>1006.776696540509</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8027204047031</v>
+        <v>344.8027204047043</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995303680440643</v>
+        <v>0.9995303680440626</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.83292498574846e-05</v>
+        <v>1.832924985748473e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672848187311</v>
+        <v>0.02606728481873135</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8362739290670976</v>
+        <v>0.8362739289385752</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8362739290670976</v>
+        <v>0.8362739289385752</v>
       </c>
       <c r="HZ3" t="n">
-        <v>491909.8639937616</v>
+        <v>491909.8639606458</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.739856258969246</v>
+        <v>2.739856258906355</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01597125674100318</v>
+        <v>0.01597125674069031</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.793336701274667e-07</v>
+        <v>-1.793336701680011e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379191296190491</v>
+        <v>0.01379191296189217</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02517508639410731</v>
+        <v>0.02517508639428782</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05493807676334526</v>
+        <v>0.05493807676320013</v>
       </c>
       <c r="II3" t="n">
-        <v>-4.06064071256651e-14</v>
+        <v>2.341037086406317e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383847.8503459267</v>
+        <v>383847.8503559672</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.0096461582981</v>
+        <v>270.0096461219164</v>
       </c>
       <c r="IN3" t="n">
-        <v>110.9901773532149</v>
+        <v>110.9901773397987</v>
       </c>
       <c r="IO3" t="n">
-        <v>246.1430266118283</v>
+        <v>246.1430265779686</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.72855740591538</v>
+        <v>65.72855740555718</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.3094936103421</v>
+        <v>137.3094935795628</v>
       </c>
       <c r="IR3" t="n">
-        <v>110.9901773532149</v>
+        <v>110.9901773397987</v>
       </c>
       <c r="IS3" t="n">
-        <v>80.83982661182833</v>
+        <v>80.83982657796858</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.06776716241515</v>
+        <v>36.06776715429046</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.2247043029132</v>
+        <v>259.2247043125211</v>
       </c>
       <c r="IV3" t="n">
-        <v>85502.9650048</v>
+        <v>85502.96501618087</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.149854237532241</v>
+        <v>1.149854237642629</v>
       </c>
       <c r="IX3" t="n">
-        <v>310971.9971211262</v>
+        <v>310971.9971279902</v>
       </c>
       <c r="IY3" t="n">
-        <v>385331.8265794253</v>
+        <v>385331.8265890484</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.658382551285</v>
+        <v>3788.658382550227</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596782.0223421851</v>
+        <v>-596782.0223686884</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5279782002018</v>
+        <v>716.5279782004592</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.192689978038</v>
+        <v>1005.192689978368</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402865932050432</v>
+        <v>1.402865932050389</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993227334871312</v>
+        <v>0.9993227334871706</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.8722512724493</v>
+        <v>322.8722512784404</v>
       </c>
       <c r="JG3" t="n">
-        <v>119868.2690122694</v>
+        <v>119868.2690282255</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.342491371904624e-06</v>
+        <v>8.342491370794128e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85445.27760900829</v>
+        <v>85445.27762038488</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.170339693406968e-05</v>
+        <v>1.170339693251143e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003871114496351412</v>
+        <v>0.003871114496208266</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.651103424280896e-05</v>
+        <v>1.651103424330232e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02328019875832295</v>
+        <v>0.02328019875907483</v>
       </c>
       <c r="JN3" t="n">
-        <v>85502.9650048</v>
+        <v>85502.96501618087</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.149854237532241</v>
+        <v>1.149854237642629</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.149854237532241</v>
+        <v>1.149854237642629</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310971.9971211262</v>
+        <v>310971.9971279902</v>
       </c>
       <c r="JR3" t="n">
-        <v>385331.8265794253</v>
+        <v>385331.8265890484</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.658382551285</v>
+        <v>3788.658382550227</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5279782002018</v>
+        <v>716.5279782004592</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.192689978038</v>
+        <v>1005.192689978368</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.8722512724493</v>
+        <v>322.8722512784404</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993227334871312</v>
+        <v>0.9993227334871706</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.651103424280896e-05</v>
+        <v>1.651103424330232e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02328019875832295</v>
+        <v>0.02328019875907483</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936613164599</v>
+        <v>295.5936613165613</v>
       </c>
       <c r="KC3" t="n">
-        <v>135266.1085927637</v>
+        <v>135266.1085934237</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.59493010546508</v>
+        <v>1.594930105472316</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3769493707</v>
+        <v>336974.3769494423</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886903</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.658382556486</v>
+        <v>3788.658382555428</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698118.971688579</v>
+        <v>-698118.9716885497</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8561154590132</v>
+        <v>717.8561154590191</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776696540501</v>
+        <v>1006.776696540514</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402477007382942</v>
+        <v>1.40247700738295</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995303680440643</v>
+        <v>0.9995303680440633</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027204047031</v>
+        <v>344.8027204047628</v>
       </c>
       <c r="KN3" t="n">
-        <v>189619.5113320909</v>
+        <v>189619.5113330168</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.273718896198642e-06</v>
+        <v>5.273718896172889e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135203.294124533</v>
+        <v>135203.2941251926</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.396269495319546e-06</v>
+        <v>7.396269495283466e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395618357235026</v>
+        <v>0.003395618357233909</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.83292498574846e-05</v>
+        <v>1.832924985748961e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.0260672848187311</v>
+        <v>0.02606728481873888</v>
       </c>
       <c r="KU3" t="n">
-        <v>135266.1085927637</v>
+        <v>135266.1085934237</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.59493010546508</v>
+        <v>1.594930105472316</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.59493010546508</v>
+        <v>1.594930105472316</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3769493707</v>
+        <v>336974.3769494423</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886903</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.658382556486</v>
+        <v>3788.658382555428</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8561154590132</v>
+        <v>717.8561154590191</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776696540501</v>
+        <v>1006.776696540514</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8027204047031</v>
+        <v>344.8027204047628</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995303680440643</v>
+        <v>0.9995303680440633</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.83292498574846e-05</v>
+        <v>1.832924985748961e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.0260672848187311</v>
+        <v>0.02606728481873888</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.6344489507043</v>
+        <v>268.6344489562916</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96841.56596156018</v>
+        <v>96841.56596895172</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256663141198617</v>
+        <v>1.256663141268364</v>
       </c>
       <c r="LL3" t="n">
-        <v>317696.3048243748</v>
+        <v>317696.3048283673</v>
       </c>
       <c r="LM3" t="n">
-        <v>394758.7750971894</v>
+        <v>394758.7751027866</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.658382557914</v>
+        <v>3788.658382556855</v>
       </c>
       <c r="LO3" t="n">
-        <v>-623005.3817637225</v>
+        <v>-623005.3817790091</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8012305893308</v>
+        <v>716.8012305895079</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.531411803329</v>
+        <v>1005.531411803551</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402803690747871</v>
+        <v>1.402803690747834</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993669704223208</v>
+        <v>0.9993669704223467</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.6874307031822</v>
+        <v>328.6874307066047</v>
       </c>
       <c r="LU3" t="n">
-        <v>135764.1391830592</v>
+        <v>135764.1391934217</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.365715320830324e-06</v>
+        <v>7.365715320268123e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96780.56885541833</v>
+        <v>96780.56886280773</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.033265263705891e-05</v>
+        <v>1.033265263626999e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003735773978571641</v>
+        <v>0.003735773978494137</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.699076564611879e-05</v>
+        <v>1.699076564640171e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02401239727477615</v>
+        <v>0.02401239727520867</v>
       </c>
       <c r="MB3" t="n">
-        <v>96841.56596156018</v>
+        <v>96841.56596895172</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.256663141198617</v>
+        <v>1.256663141268364</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.256663141198617</v>
+        <v>1.256663141268364</v>
       </c>
       <c r="ME3" t="n">
-        <v>317696.3048243748</v>
+        <v>317696.3048283673</v>
       </c>
       <c r="MF3" t="n">
-        <v>394758.7750971894</v>
+        <v>394758.7751027866</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.658382557914</v>
+        <v>3788.658382556855</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8012305893308</v>
+        <v>716.8012305895079</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.531411803329</v>
+        <v>1005.531411803551</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.6874307031822</v>
+        <v>328.6874307066047</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993669704223208</v>
+        <v>0.9993669704223467</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.699076564611879e-05</v>
+        <v>1.699076564640171e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02401239727477615</v>
+        <v>0.02401239727520867</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8362739290669358</v>
+        <v>0.8362739289387366</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4252749905549369</v>
+        <v>0.4252749904517161</v>
       </c>
       <c r="MR3" t="n">
-        <v>249197.3896843908</v>
+        <v>249197.389645008</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.739856258971871</v>
+        <v>2.739856258903715</v>
       </c>
       <c r="MT3" t="n">
-        <v>381096.2011319693</v>
+        <v>381096.2011375665</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.5519907081711</v>
+        <v>142.5519907087305</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.0966684632638</v>
+        <v>127.0966684636326</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.55623068613673</v>
+        <v>-64.55623068664585</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.92738856704577</v>
+        <v>-26.92738856716108</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.657421387281</v>
+        <v>262.657421387905</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.0966684632638</v>
+        <v>127.0966684636326</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.8594306861367</v>
+        <v>-229.8594306866459</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.06038353036454</v>
+        <v>-61.06038353034788</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1838852758625</v>
+        <v>234.1838852814849</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000006863</v>
+        <v>57500.00000183415</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559985489366306</v>
+        <v>0.8559985489423173</v>
       </c>
       <c r="NG3" t="n">
-        <v>293091.3035262351</v>
+        <v>293091.3035302594</v>
       </c>
       <c r="NH3" t="n">
-        <v>360264.3145920814</v>
+        <v>360264.314597722</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.772306157155</v>
+        <v>3800.772306172435</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529815.3111127011</v>
+        <v>-529815.3111320081</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9875938122877</v>
+        <v>715.9875938123632</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421568299322</v>
+        <v>1004.42156829936</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847726664177</v>
+        <v>1.402847726664083</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992670776642463</v>
+        <v>0.9992670776642992</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8624411048029</v>
+        <v>306.8624411084925</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.72480450316</v>
+        <v>80604.72480697696</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622063316235e-05</v>
+        <v>1.24062206327816e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.92880612398</v>
+        <v>57457.92880789127</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403841172601e-05</v>
+        <v>1.74040384111907e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283573611782865</v>
+        <v>0.004283573611679518</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.519967833333361e-05</v>
+        <v>1.51996783336333e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02128979103942749</v>
+        <v>0.02128979103987984</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000006863</v>
+        <v>57500.00000183415</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559985489366306</v>
+        <v>0.8559985489423173</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559985489366306</v>
+        <v>0.8559985489423173</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293091.3035262351</v>
+        <v>293091.3035302594</v>
       </c>
       <c r="OA3" t="n">
-        <v>360264.3145920814</v>
+        <v>360264.314597722</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.772306157155</v>
+        <v>3800.772306172435</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9875938122877</v>
+        <v>715.9875938123632</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421568299322</v>
+        <v>1004.42156829936</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8624411048029</v>
+        <v>306.8624411084925</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992670776642463</v>
+        <v>0.9992670776642992</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.519967833333361e-05</v>
+        <v>1.51996783336333e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02128979103942749</v>
+        <v>0.02128979103987984</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3307141638764</v>
+        <v>244.3307141695771</v>
       </c>
       <c r="OL3" t="n">
-        <v>66676.78108791767</v>
+        <v>66676.78109206332</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9513629553241009</v>
+        <v>0.951362955361025</v>
       </c>
       <c r="ON3" t="n">
-        <v>300339.3152661144</v>
+        <v>300339.3152701905</v>
       </c>
       <c r="OO3" t="n">
-        <v>370424.8496195124</v>
+        <v>370424.8496252261</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.77230617556</v>
+        <v>3800.77230618111</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558220.5623226453</v>
+        <v>-558220.562339955</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1697015762405</v>
+        <v>716.1697015763491</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.669565289608</v>
+        <v>1004.669565289726</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837292723218</v>
+        <v>1.40283729272317</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992958743515007</v>
+        <v>0.9992958743515322</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4478194890653</v>
+        <v>313.4478194927265</v>
       </c>
       <c r="OW3" t="n">
-        <v>93470.96849288521</v>
+        <v>93470.96849869654</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069850902503613e-05</v>
+        <v>1.069850902437097e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66629.94274370717</v>
+        <v>66629.94274785202</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.50082674368566e-05</v>
+        <v>1.500826743592298e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.00410603051143205</v>
+        <v>0.004106030511336184</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573704590511253e-05</v>
+        <v>1.573704590541181e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210319966286587</v>
+        <v>0.02210319966331947</v>
       </c>
       <c r="PD3" t="n">
-        <v>66676.78108791767</v>
+        <v>66676.78109206332</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9513629553241009</v>
+        <v>0.951362955361025</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9513629553241009</v>
+        <v>0.951362955361025</v>
       </c>
       <c r="PG3" t="n">
-        <v>300339.3152661144</v>
+        <v>300339.3152701905</v>
       </c>
       <c r="PH3" t="n">
-        <v>370424.8496195124</v>
+        <v>370424.8496252261</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.77230617556</v>
+        <v>3800.77230618111</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1697015762405</v>
+        <v>716.1697015763491</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.669565289608</v>
+        <v>1004.669565289726</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4478194890653</v>
+        <v>313.4478194927265</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992958743515007</v>
+        <v>0.9992958743515322</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573704590511253e-05</v>
+        <v>1.573704590541181e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210319966286587</v>
+        <v>0.02210319966331947</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.6231741231098</v>
+        <v>268.6231741285904</v>
       </c>
       <c r="PS3" t="n">
-        <v>92837.30500535645</v>
+        <v>92837.30501018239</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.204721243359337</v>
+        <v>1.204721243397336</v>
       </c>
       <c r="PU3" t="n">
-        <v>317697.5416232927</v>
+        <v>317697.5416272145</v>
       </c>
       <c r="PV3" t="n">
-        <v>394758.7750970894</v>
+        <v>394758.7751025864</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.772306166884</v>
+        <v>3800.772306172434</v>
       </c>
       <c r="PX3" t="n">
-        <v>-626216.7459046711</v>
+        <v>-626216.7459214956</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7880334377721</v>
+        <v>716.7880334379385</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.44876207138</v>
+        <v>1005.448762071552</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714212804541</v>
+        <v>1.402714212804456</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.999392876688985</v>
+        <v>0.9993928766890232</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.6785283490879</v>
+        <v>328.6785283524434</v>
       </c>
       <c r="QD3" t="n">
-        <v>130145.5239108366</v>
+        <v>130145.523917599</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.683706438379744e-06</v>
+        <v>7.683706437980498e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92781.21139916866</v>
+        <v>92781.21140399523</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.077804422813303e-05</v>
+        <v>1.077804422757234e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003735385068600885</v>
+        <v>0.003735385068524569</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698958809322666e-05</v>
+        <v>1.698958809350381e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02401010943908388</v>
+        <v>0.0240101094395073</v>
       </c>
       <c r="QK3" t="n">
-        <v>92837.30500535645</v>
+        <v>92837.30501018239</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.204721243359337</v>
+        <v>1.204721243397336</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.204721243359337</v>
+        <v>1.204721243397336</v>
       </c>
       <c r="QN3" t="n">
-        <v>317697.5416232927</v>
+        <v>317697.5416272145</v>
       </c>
       <c r="QO3" t="n">
-        <v>394758.7750970894</v>
+        <v>394758.7751025864</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.772306166884</v>
+        <v>3800.772306172434</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7880334377721</v>
+        <v>716.7880334379385</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.44876207138</v>
+        <v>1005.448762071552</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.6785283490879</v>
+        <v>328.6785283524434</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.999392876688985</v>
+        <v>0.9993928766890232</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698958809322666e-05</v>
+        <v>1.698958809350381e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02401010943908388</v>
+        <v>0.0240101094395073</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4645468835968923</v>
+        <v>0.4645468835931297</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8559451604491911</v>
+        <v>0.8559451604409332</v>
       </c>
       <c r="RA3" t="n">
-        <v>385480.7710235369</v>
+        <v>385480.771019413</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.739856258960444</v>
+        <v>2.739856258986597</v>
       </c>
       <c r="RC3" t="n">
-        <v>381096.2011319693</v>
+        <v>381096.2011375665</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02453974795699215</v>
+        <v>0.02453974794970079</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002167609839125731</v>
+        <v>0.002167609834024261</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01189015978285063</v>
+        <v>0.01189015978321833</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03202685944101664</v>
+        <v>0.03202685943780865</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04269102602198501</v>
+        <v>0.04269102601660969</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1133154030419702</v>
+        <v>0.1133154030213617</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-8.171233134568467e-11</v>
+        <v>1.677380456754918e-12</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357444.4675520055</v>
+        <v>357444.4675537979</v>
       </c>
     </row>
   </sheetData>
@@ -7566,148 +7566,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01595401972232894</v>
+        <v>0.01595401972227841</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.786755949425342e-07</v>
+        <v>-1.786755949460734e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379134453100929</v>
+        <v>0.01379134453100263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0251829021128466</v>
+        <v>0.02518290211294599</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05492808769058988</v>
+        <v>0.05492808769063208</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.538018406550435e-12</v>
+        <v>-4.204674802776864e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9685503188872062</v>
+        <v>0.9685503188599692</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>338.0958597804167</v>
+        <v>338.0958596169277</v>
       </c>
       <c r="L2" t="n">
-        <v>138.147890725177</v>
+        <v>138.1478906583745</v>
       </c>
       <c r="M2" t="n">
-        <v>308.5838146903427</v>
+        <v>308.5838145411245</v>
       </c>
       <c r="N2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>338.0958597804167</v>
+        <v>338.0958596169277</v>
       </c>
       <c r="P2" t="n">
-        <v>138.147890725177</v>
+        <v>138.1478906583745</v>
       </c>
       <c r="Q2" t="n">
-        <v>308.5838146903427</v>
+        <v>308.5838145411245</v>
       </c>
       <c r="R2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>238.5503474774706</v>
+        <v>238.5503475328763</v>
       </c>
       <c r="T2" t="n">
-        <v>63147.21197980076</v>
+        <v>63147.21203160701</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9228700644562853</v>
+        <v>0.9228700649989258</v>
       </c>
       <c r="V2" t="n">
-        <v>296205.2124588753</v>
+        <v>296205.2124984476</v>
       </c>
       <c r="W2" t="n">
-        <v>364630.0258880597</v>
+        <v>364630.0259435348</v>
       </c>
       <c r="X2" t="n">
-        <v>3792.370883061816</v>
+        <v>3792.370883059044</v>
       </c>
       <c r="Y2" t="n">
-        <v>-540041.3660297783</v>
+        <v>-540041.3661837613</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.0692961654817</v>
+        <v>716.0692961664637</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.573466380125</v>
+        <v>1004.573466381491</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402899791625712</v>
+        <v>1.402899791625696</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9992573200104352</v>
+        <v>0.9992573200105874</v>
       </c>
       <c r="AD2" t="n">
-        <v>309.7127838902171</v>
+        <v>309.7127839262298</v>
       </c>
       <c r="AE2" t="n">
-        <v>88523.5501718118</v>
+        <v>88523.55024444964</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129642900741261e-05</v>
+        <v>1.129642899814334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>63100.40866798384</v>
+        <v>63100.40871976146</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.584775790061379e-05</v>
+        <v>1.584775788760977e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.004205718629761351</v>
+        <v>0.004205718628786684</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.543228148409742e-05</v>
+        <v>1.54322814870352e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02164182501499473</v>
+        <v>0.02164182501944078</v>
       </c>
       <c r="AL2" t="n">
-        <v>63147.21197980076</v>
+        <v>63147.21203160701</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9228700644562853</v>
+        <v>0.9228700649989258</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.9228700644562853</v>
+        <v>0.9228700649989258</v>
       </c>
       <c r="AO2" t="n">
-        <v>296205.2124588753</v>
+        <v>296205.2124984476</v>
       </c>
       <c r="AP2" t="n">
-        <v>364630.0258880597</v>
+        <v>364630.0259435348</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3792.370883061816</v>
+        <v>3792.370883059044</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.0692961654817</v>
+        <v>716.0692961664637</v>
       </c>
       <c r="AS2" t="n">
-        <v>1004.573466380125</v>
+        <v>1004.573466381491</v>
       </c>
       <c r="AT2" t="n">
-        <v>309.7127838902171</v>
+        <v>309.7127839262298</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9992573200104352</v>
+        <v>0.9992573200105874</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.543228148409742e-05</v>
+        <v>1.54322814870352e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02164182501499473</v>
+        <v>0.02164182501944078</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7718,97 +7718,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5896289137399</v>
+        <v>295.589628913743</v>
       </c>
       <c r="BA2" t="n">
-        <v>133527.125791736</v>
+        <v>133527.1257930258</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.574437815792206</v>
+        <v>1.574437815807405</v>
       </c>
       <c r="BC2" t="n">
-        <v>336975.0315350421</v>
+        <v>336975.0315350416</v>
       </c>
       <c r="BD2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="BE2" t="n">
-        <v>3792.370883058859</v>
+        <v>3792.370883056089</v>
       </c>
       <c r="BF2" t="n">
-        <v>-699201.070938051</v>
+        <v>-699201.0709372431</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8515857589138</v>
+        <v>717.8515857589171</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.748143660325</v>
+        <v>1006.748143660347</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402446081659052</v>
+        <v>1.402446081659075</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995362887964702</v>
+        <v>0.9995362887964657</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.7985863365217</v>
+        <v>344.7985863365247</v>
       </c>
       <c r="BL2" t="n">
-        <v>187178.7167266222</v>
+        <v>187178.7167284325</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.34248774373487e-06</v>
+        <v>5.342487743683198e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>133465.8916121719</v>
+        <v>133465.8916134605</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.492551002512478e-06</v>
+        <v>7.492551002440135e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395503619092892</v>
+        <v>0.003395503619092977</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832880343988876e-05</v>
+        <v>1.832880343988909e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606642662360828</v>
+        <v>0.02606642662360891</v>
       </c>
       <c r="BS2" t="n">
-        <v>133527.125791736</v>
+        <v>133527.1257930258</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.574437815792206</v>
+        <v>1.574437815807405</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.574437815792206</v>
+        <v>1.574437815807405</v>
       </c>
       <c r="BV2" t="n">
-        <v>336975.0315350421</v>
+        <v>336975.0315350416</v>
       </c>
       <c r="BW2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="BX2" t="n">
-        <v>3792.370883058859</v>
+        <v>3792.370883056089</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8515857589138</v>
+        <v>717.8515857589171</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.748143660325</v>
+        <v>1006.748143660347</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.7985863365217</v>
+        <v>344.7985863365247</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995362887964702</v>
+        <v>0.9995362887964657</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832880343988876e-05</v>
+        <v>1.832880343988909e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606642662360828</v>
+        <v>0.02606642662360891</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7819,97 +7819,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5896289137399</v>
+        <v>295.589628913743</v>
       </c>
       <c r="CH2" t="n">
-        <v>133527.125791736</v>
+        <v>133527.1257930258</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.574437815792206</v>
+        <v>1.574437815807405</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336975.0315350421</v>
+        <v>336975.0315350416</v>
       </c>
       <c r="CK2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="CL2" t="n">
-        <v>3792.370883058859</v>
+        <v>3792.370883056089</v>
       </c>
       <c r="CM2" t="n">
-        <v>-699201.070938051</v>
+        <v>-699201.0709372431</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8515857589138</v>
+        <v>717.8515857589171</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.748143660325</v>
+        <v>1006.748143660347</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402446081659052</v>
+        <v>1.402446081659075</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995362887964702</v>
+        <v>0.9995362887964657</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.7985863365217</v>
+        <v>344.7985863365247</v>
       </c>
       <c r="CS2" t="n">
-        <v>187178.7167266222</v>
+        <v>187178.7167284325</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.34248774373487e-06</v>
+        <v>5.342487743683198e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>133465.8916121719</v>
+        <v>133465.8916134605</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.492551002512478e-06</v>
+        <v>7.492551002440135e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395503619092892</v>
+        <v>0.003395503619092977</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832880343988876e-05</v>
+        <v>1.832880343988909e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606642662360828</v>
+        <v>0.02606642662360891</v>
       </c>
       <c r="CZ2" t="n">
-        <v>133527.125791736</v>
+        <v>133527.1257930258</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.574437815792206</v>
+        <v>1.574437815807405</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.574437815792206</v>
+        <v>1.574437815807405</v>
       </c>
       <c r="DC2" t="n">
-        <v>336975.0315350421</v>
+        <v>336975.0315350416</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="DE2" t="n">
-        <v>3792.370883058859</v>
+        <v>3792.370883056089</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8515857589138</v>
+        <v>717.8515857589171</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.748143660325</v>
+        <v>1006.748143660347</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.7985863365217</v>
+        <v>344.7985863365247</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995362887964702</v>
+        <v>0.9995362887964657</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832880343988876e-05</v>
+        <v>1.832880343988909e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606642662360828</v>
+        <v>0.02606642662360891</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7920,37 +7920,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02464867471040202</v>
+        <v>0.02464867459106541</v>
       </c>
       <c r="DO2" t="n">
-        <v>-2.133898147999845e-07</v>
+        <v>-2.133898149546934e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379699015885857</v>
+        <v>0.01379699015885759</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02510782617051977</v>
+        <v>0.02510782617054305</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.06355327764996556</v>
+        <v>0.0635532775306511</v>
       </c>
       <c r="DT2" t="n">
-        <v>-2.464972670424004e-13</v>
+        <v>1.463583004790436e-10</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.091643217091938</v>
+        <v>1.091643216437131</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.091643217091938</v>
+        <v>1.091643216437131</v>
       </c>
       <c r="DW2" t="n">
-        <v>528917.5953460474</v>
+        <v>528917.5953005967</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.737065943076564</v>
+        <v>2.737065943362407</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7959,157 +7959,157 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>362385.4595414446</v>
+        <v>362385.4595970534</v>
       </c>
       <c r="EB2" t="n">
-        <v>1471.157307362242</v>
+        <v>1471.157306293782</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0243824170280734</v>
+        <v>0.024382417027909</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.001899441189367724</v>
+        <v>0.001899441188775779</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01189653595464985</v>
+        <v>0.01189653595467934</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.03194002580814421</v>
+        <v>0.03194002580783483</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.04238224442778565</v>
+        <v>0.04238224442705585</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.1125006644080208</v>
+        <v>0.1125006644062548</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-1.416054218328355e-10</v>
+        <v>-6.789592499334418e-11</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9436170292911165</v>
+        <v>0.943617029483068</v>
       </c>
       <c r="EL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM2" t="n">
-        <v>188.6962152869628</v>
+        <v>188.696215801869</v>
       </c>
       <c r="EN2" t="n">
-        <v>152.356843091968</v>
+        <v>152.3568433660545</v>
       </c>
       <c r="EO2" t="n">
-        <v>-111.3267893486255</v>
+        <v>-111.3267898462765</v>
       </c>
       <c r="EP2" t="n">
-        <v>-36.15551233175084</v>
+        <v>-36.15551240465715</v>
       </c>
       <c r="EQ2" t="n">
-        <v>315.8112706094753</v>
+        <v>315.8112711776126</v>
       </c>
       <c r="ER2" t="n">
-        <v>152.356843091968</v>
+        <v>152.3568433660545</v>
       </c>
       <c r="ES2" t="n">
-        <v>-276.6299893486255</v>
+        <v>-276.6299898462765</v>
       </c>
       <c r="ET2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EU2" t="n">
-        <v>219.0787372005498</v>
+        <v>219.0787370218647</v>
       </c>
       <c r="EV2" t="n">
-        <v>44826.28598498402</v>
+        <v>44826.28585619938</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.713350075734456</v>
+        <v>0.7133500742670267</v>
       </c>
       <c r="EX2" t="n">
-        <v>282305.2007973514</v>
+        <v>282305.2006697372</v>
       </c>
       <c r="EY2" t="n">
-        <v>345144.3137515786</v>
+        <v>345144.3135726955</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3805.450634585939</v>
+        <v>3805.45063459348</v>
       </c>
       <c r="FA2" t="n">
-        <v>-488549.0057525398</v>
+        <v>-488549.0052530976</v>
       </c>
       <c r="FB2" t="n">
-        <v>715.779789393603</v>
+        <v>715.7797893916126</v>
       </c>
       <c r="FC2" t="n">
-        <v>1004.09657722207</v>
+        <v>1004.096577218938</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.402800962112558</v>
+        <v>1.402800962112083</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9992486883204348</v>
+        <v>0.9992486883201797</v>
       </c>
       <c r="FF2" t="n">
-        <v>296.7905045698074</v>
+        <v>296.7905044486464</v>
       </c>
       <c r="FG2" t="n">
-        <v>62835.15865109751</v>
+        <v>62835.15847053628</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.591465704021953e-05</v>
+        <v>1.591465708595141e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>44792.64011657824</v>
+        <v>44792.63998787861</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.232509620771134e-05</v>
+        <v>2.232509627185652e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004578074716822208</v>
+        <v>0.004578074720548297</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.438304382885727e-05</v>
+        <v>1.438304381907726e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02005889188337334</v>
+        <v>0.02005889186867244</v>
       </c>
       <c r="FN2" t="n">
-        <v>44826.28598498402</v>
+        <v>44826.28585619938</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.713350075734456</v>
+        <v>0.7133500742670267</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.713350075734456</v>
+        <v>0.7133500742670267</v>
       </c>
       <c r="FQ2" t="n">
-        <v>282305.2007973514</v>
+        <v>282305.2006697372</v>
       </c>
       <c r="FR2" t="n">
-        <v>345144.3137515786</v>
+        <v>345144.3135726955</v>
       </c>
       <c r="FS2" t="n">
-        <v>3805.450634585939</v>
+        <v>3805.45063459348</v>
       </c>
       <c r="FT2" t="n">
-        <v>715.779789393603</v>
+        <v>715.7797893916126</v>
       </c>
       <c r="FU2" t="n">
-        <v>1004.09657722207</v>
+        <v>1004.096577218938</v>
       </c>
       <c r="FV2" t="n">
-        <v>296.7905045698074</v>
+        <v>296.7905044486464</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9992486883204348</v>
+        <v>0.9992486883201797</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.438304382885727e-05</v>
+        <v>1.438304381907726e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02005889188337334</v>
+        <v>0.02005889186867244</v>
       </c>
       <c r="FZ2" t="inlineStr">
         <is>
@@ -8120,97 +8120,97 @@
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>236.8600861214128</v>
+        <v>236.860086039694</v>
       </c>
       <c r="GC2" t="n">
-        <v>58861.77099424904</v>
+        <v>58861.77091984787</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.8663542999781652</v>
+        <v>0.8663542991821448</v>
       </c>
       <c r="GE2" t="n">
-        <v>295005.5286770084</v>
+        <v>295005.5286186453</v>
       </c>
       <c r="GF2" t="n">
-        <v>362947.4445833905</v>
+        <v>362947.444501575</v>
       </c>
       <c r="GG2" t="n">
-        <v>3805.450634587999</v>
+        <v>3805.450634605151</v>
       </c>
       <c r="GH2" t="n">
-        <v>-538411.9204559076</v>
+        <v>-538411.920230809</v>
       </c>
       <c r="GI2" t="n">
-        <v>716.0273291826904</v>
+        <v>716.0273291812848</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1004.455941618899</v>
+        <v>1004.45594161689</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.402817882336189</v>
+        <v>1.402817882336137</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9992857090439929</v>
+        <v>0.9992857090438199</v>
       </c>
       <c r="GM2" t="n">
-        <v>308.6133180317281</v>
+        <v>308.6133179784313</v>
       </c>
       <c r="GN2" t="n">
-        <v>82513.47223995246</v>
+        <v>82513.47213563802</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.211923305193072e-05</v>
+        <v>1.211923306725199e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>58819.80353895852</v>
+        <v>58819.80346460002</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.70010768454482e-05</v>
+        <v>1.700107686694053e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.004235056530269289</v>
+        <v>0.004235056531726736</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.534209890247433e-05</v>
+        <v>1.534209889812967e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.0215049416797823</v>
+        <v>0.02150494167321067</v>
       </c>
       <c r="GU2" t="n">
-        <v>58861.77099424904</v>
+        <v>58861.77091984787</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.8663542999781652</v>
+        <v>0.8663542991821448</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.8663542999781652</v>
+        <v>0.8663542991821448</v>
       </c>
       <c r="GX2" t="n">
-        <v>295005.5286770084</v>
+        <v>295005.5286186453</v>
       </c>
       <c r="GY2" t="n">
-        <v>362947.4445833905</v>
+        <v>362947.444501575</v>
       </c>
       <c r="GZ2" t="n">
-        <v>3805.450634587999</v>
+        <v>3805.450634605151</v>
       </c>
       <c r="HA2" t="n">
-        <v>716.0273291826904</v>
+        <v>716.0273291812848</v>
       </c>
       <c r="HB2" t="n">
-        <v>1004.455941618899</v>
+        <v>1004.45594161689</v>
       </c>
       <c r="HC2" t="n">
-        <v>308.6133180317281</v>
+        <v>308.6133179784313</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.9992857090439929</v>
+        <v>0.9992857090438199</v>
       </c>
       <c r="HE2" t="n">
-        <v>1.534209890247433e-05</v>
+        <v>1.534209889812967e-05</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.0215049416797823</v>
+        <v>0.02150494167321067</v>
       </c>
       <c r="HG2" t="inlineStr">
         <is>
@@ -8221,97 +8221,97 @@
         <v>1</v>
       </c>
       <c r="HI2" t="n">
-        <v>268.872341435026</v>
+        <v>268.8723414357593</v>
       </c>
       <c r="HJ2" t="n">
-        <v>91636.91617425159</v>
+        <v>91636.91617049104</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.1880291797967</v>
+        <v>1.188029179744666</v>
       </c>
       <c r="HL2" t="n">
-        <v>317879.1363118867</v>
+        <v>317879.1363124215</v>
       </c>
       <c r="HM2" t="n">
-        <v>395012.6930734578</v>
+        <v>395012.6930742056</v>
       </c>
       <c r="HN2" t="n">
-        <v>3805.450634590597</v>
+        <v>3805.450634605151</v>
       </c>
       <c r="HO2" t="n">
-        <v>-628167.7292643219</v>
+        <v>-628167.7292702774</v>
       </c>
       <c r="HP2" t="n">
-        <v>716.7910582470111</v>
+        <v>716.7910582470191</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1005.427410187183</v>
+        <v>1005.427410187116</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.40267850529004</v>
+        <v>1.40267850528993</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9994038051237244</v>
+        <v>0.9994038051237578</v>
       </c>
       <c r="HT2" t="n">
-        <v>328.8303269851792</v>
+        <v>328.8303269856257</v>
       </c>
       <c r="HU2" t="n">
-        <v>128460.8633203145</v>
+        <v>128460.863315037</v>
       </c>
       <c r="HV2" t="n">
-        <v>7.784472049720863e-06</v>
+        <v>7.784472050040668e-06</v>
       </c>
       <c r="HW2" t="n">
-        <v>91582.5421405113</v>
+        <v>91582.54213675606</v>
       </c>
       <c r="HX2" t="n">
-        <v>1.091911161917455e-05</v>
+        <v>1.091911161962228e-05</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.003731725201390393</v>
+        <v>0.003731725201379603</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.700197027977517e-05</v>
+        <v>1.700197027981156e-05</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.02402885426153636</v>
+        <v>0.02402885426159143</v>
       </c>
       <c r="IB2" t="n">
-        <v>91636.91617425159</v>
+        <v>91636.91617049104</v>
       </c>
       <c r="IC2" t="n">
-        <v>1.1880291797967</v>
+        <v>1.188029179744666</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.1880291797967</v>
+        <v>1.188029179744666</v>
       </c>
       <c r="IE2" t="n">
-        <v>317879.1363118867</v>
+        <v>317879.1363124215</v>
       </c>
       <c r="IF2" t="n">
-        <v>395012.6930734578</v>
+        <v>395012.6930742056</v>
       </c>
       <c r="IG2" t="n">
-        <v>3805.450634590597</v>
+        <v>3805.450634605151</v>
       </c>
       <c r="IH2" t="n">
-        <v>716.7910582470111</v>
+        <v>716.7910582470191</v>
       </c>
       <c r="II2" t="n">
-        <v>1005.427410187183</v>
+        <v>1005.427410187116</v>
       </c>
       <c r="IJ2" t="n">
-        <v>328.8303269851792</v>
+        <v>328.8303269856257</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.9994038051237244</v>
+        <v>0.9994038051237578</v>
       </c>
       <c r="IL2" t="n">
-        <v>1.700197027977517e-05</v>
+        <v>1.700197027981156e-05</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.02402885426153636</v>
+        <v>0.02402885426159143</v>
       </c>
       <c r="IN2" t="inlineStr">
         <is>
@@ -8322,52 +8322,52 @@
         <v>1</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02995672890747457</v>
+        <v>0.02995672934970914</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.00223857328086208</v>
+        <v>0.002238573283982087</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01191452607880486</v>
+        <v>0.01191452607884879</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03183734622190425</v>
+        <v>0.03183734622151359</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04249305104695086</v>
+        <v>0.04249305104631559</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1184402255359966</v>
+        <v>0.1184402259803692</v>
       </c>
       <c r="IV2" t="n">
-        <v>-1.097617274847806e-10</v>
+        <v>-7.428017506638795e-10</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.6357892600387423</v>
+        <v>0.6357892620332097</v>
       </c>
       <c r="IX2" t="n">
-        <v>1.064088189301198</v>
+        <v>1.064088191649869</v>
       </c>
       <c r="IY2" t="n">
-        <v>408182.0891648168</v>
+        <v>408182.0893370083</v>
       </c>
       <c r="IZ2" t="n">
-        <v>2.737065943079644</v>
+        <v>2.737065942373157</v>
       </c>
       <c r="JA2" t="n">
-        <v>381350.1191084442</v>
+        <v>381350.1191089853</v>
       </c>
       <c r="JB2" t="n">
         <v>0</v>
       </c>
       <c r="JC2" t="n">
-        <v>341483.2651669472</v>
+        <v>341483.2649885307</v>
       </c>
       <c r="JD2" t="n">
-        <v>2666.004311102093</v>
+        <v>2666.004312836623</v>
       </c>
       <c r="JE2" t="n">
-        <v>6.094960070393689</v>
+        <v>6.094960069416842</v>
       </c>
     </row>
     <row r="3">
@@ -8375,148 +8375,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01597125674100318</v>
+        <v>0.01597125674069031</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793336701274667e-07</v>
+        <v>-1.793336701680011e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379191296190491</v>
+        <v>0.01379191296189217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02517508639410731</v>
+        <v>0.02517508639428782</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05493807676334526</v>
+        <v>0.05493807676320013</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.06064071256651e-14</v>
+        <v>2.341037086406317e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9687822899614287</v>
+        <v>0.9687822899502638</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>337.1378185770636</v>
+        <v>337.137818623512</v>
       </c>
       <c r="L3" t="n">
-        <v>137.7564296420481</v>
+        <v>137.7564296610272</v>
       </c>
       <c r="M3" t="n">
-        <v>307.7093999330805</v>
+        <v>307.7093999754745</v>
       </c>
       <c r="N3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>337.1378185770636</v>
+        <v>337.137818623512</v>
       </c>
       <c r="P3" t="n">
-        <v>137.7564296420481</v>
+        <v>137.7564296610272</v>
       </c>
       <c r="Q3" t="n">
-        <v>307.7093999330805</v>
+        <v>307.7093999754745</v>
       </c>
       <c r="R3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>238.8734885478092</v>
+        <v>238.8734885320645</v>
       </c>
       <c r="T3" t="n">
-        <v>63477.12183158984</v>
+        <v>63477.12181549961</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9264360733335579</v>
+        <v>0.926436073159814</v>
       </c>
       <c r="V3" t="n">
-        <v>296435.9355226285</v>
+        <v>296435.9355113867</v>
       </c>
       <c r="W3" t="n">
-        <v>364953.4767310388</v>
+        <v>364953.4767152789</v>
       </c>
       <c r="X3" t="n">
-        <v>3792.231206050851</v>
+        <v>3792.231206057582</v>
       </c>
       <c r="Y3" t="n">
-        <v>-540910.0208381939</v>
+        <v>-540910.020795854</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.0751648317388</v>
+        <v>716.0751648314523</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.582202840294</v>
+        <v>1004.582202839868</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402900494498155</v>
+        <v>1.402900494498121</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.999257893250842</v>
+        <v>0.9992578932508137</v>
       </c>
       <c r="AD3" t="n">
-        <v>309.9227396408131</v>
+        <v>309.9227396305866</v>
       </c>
       <c r="AE3" t="n">
-        <v>88986.1345714535</v>
+        <v>88986.1345488925</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123770579333375e-05</v>
+        <v>1.123770579618289e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>63430.11134462931</v>
+        <v>63430.11132854913</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.576538301449271e-05</v>
+        <v>1.576538301848939e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.004200047689950745</v>
+        <v>0.004200047690226687</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.544941535314487e-05</v>
+        <v>1.544941535231026e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02166776121049016</v>
+        <v>0.02166776120922671</v>
       </c>
       <c r="AL3" t="n">
-        <v>63477.12183158984</v>
+        <v>63477.12181549961</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9264360733335579</v>
+        <v>0.926436073159814</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.9264360733335579</v>
+        <v>0.926436073159814</v>
       </c>
       <c r="AO3" t="n">
-        <v>296435.9355226285</v>
+        <v>296435.9355113867</v>
       </c>
       <c r="AP3" t="n">
-        <v>364953.4767310388</v>
+        <v>364953.4767152789</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3792.231206050851</v>
+        <v>3792.231206057582</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.0751648317388</v>
+        <v>716.0751648314523</v>
       </c>
       <c r="AS3" t="n">
-        <v>1004.582202840294</v>
+        <v>1004.582202839868</v>
       </c>
       <c r="AT3" t="n">
-        <v>309.9227396408131</v>
+        <v>309.9227396305866</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.999257893250842</v>
+        <v>0.9992578932508137</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.544941535314487e-05</v>
+        <v>1.544941535231026e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02166776121049016</v>
+        <v>0.02166776120922671</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8527,97 +8527,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5897796900206</v>
+        <v>295.5897796900133</v>
       </c>
       <c r="BA3" t="n">
-        <v>133592.1455577591</v>
+        <v>133592.1455546256</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.575204018803829</v>
+        <v>1.575204018766904</v>
       </c>
       <c r="BC3" t="n">
-        <v>336975.0070628653</v>
+        <v>336975.0070628666</v>
       </c>
       <c r="BD3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BE3" t="n">
-        <v>3792.231206047728</v>
+        <v>3792.231206054459</v>
       </c>
       <c r="BF3" t="n">
-        <v>-699160.3556406796</v>
+        <v>-699160.3556426411</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8517551281841</v>
+        <v>717.8517551281758</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.749211262267</v>
+        <v>1006.749211262215</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402447237985084</v>
+        <v>1.402447237985028</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995360673678105</v>
+        <v>0.9995360673678212</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.7987408919906</v>
+        <v>344.7987408919831</v>
       </c>
       <c r="BL3" t="n">
-        <v>187269.9754746521</v>
+        <v>187269.9754702541</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.339884289862338e-06</v>
+        <v>5.339884289987744e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>133530.8526427743</v>
+        <v>133530.8526396437</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.488905973477376e-06</v>
+        <v>7.488905973652955e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395507909488484</v>
+        <v>0.003395507909488278</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832882013070156e-05</v>
+        <v>1.832882013070075e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606645870942161</v>
+        <v>0.02606645870942006</v>
       </c>
       <c r="BS3" t="n">
-        <v>133592.1455577591</v>
+        <v>133592.1455546256</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.575204018803829</v>
+        <v>1.575204018766904</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.575204018803829</v>
+        <v>1.575204018766904</v>
       </c>
       <c r="BV3" t="n">
-        <v>336975.0070628653</v>
+        <v>336975.0070628666</v>
       </c>
       <c r="BW3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BX3" t="n">
-        <v>3792.231206047728</v>
+        <v>3792.231206054459</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8517551281841</v>
+        <v>717.8517551281758</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.749211262267</v>
+        <v>1006.749211262215</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.7987408919906</v>
+        <v>344.7987408919831</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995360673678105</v>
+        <v>0.9995360673678212</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832882013070156e-05</v>
+        <v>1.832882013070075e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606645870942161</v>
+        <v>0.02606645870942006</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8628,97 +8628,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5897796900206</v>
+        <v>295.5897796900133</v>
       </c>
       <c r="CH3" t="n">
-        <v>133592.1455577591</v>
+        <v>133592.1455546256</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.575204018803829</v>
+        <v>1.575204018766904</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336975.0070628653</v>
+        <v>336975.0070628666</v>
       </c>
       <c r="CK3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="CL3" t="n">
-        <v>3792.231206047728</v>
+        <v>3792.231206054459</v>
       </c>
       <c r="CM3" t="n">
-        <v>-699160.3556406796</v>
+        <v>-699160.3556426411</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8517551281841</v>
+        <v>717.8517551281758</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.749211262267</v>
+        <v>1006.749211262215</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402447237985084</v>
+        <v>1.402447237985028</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995360673678105</v>
+        <v>0.9995360673678212</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.7987408919906</v>
+        <v>344.7987408919831</v>
       </c>
       <c r="CS3" t="n">
-        <v>187269.9754746521</v>
+        <v>187269.9754702541</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.339884289862338e-06</v>
+        <v>5.339884289987744e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>133530.8526427743</v>
+        <v>133530.8526396437</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.488905973477376e-06</v>
+        <v>7.488905973652955e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395507909488484</v>
+        <v>0.003395507909488278</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832882013070156e-05</v>
+        <v>1.832882013070075e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606645870942161</v>
+        <v>0.02606645870942006</v>
       </c>
       <c r="CZ3" t="n">
-        <v>133592.1455577591</v>
+        <v>133592.1455546256</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.575204018803829</v>
+        <v>1.575204018766904</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.575204018803829</v>
+        <v>1.575204018766904</v>
       </c>
       <c r="DC3" t="n">
-        <v>336975.0070628653</v>
+        <v>336975.0070628666</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="DE3" t="n">
-        <v>3792.231206047728</v>
+        <v>3792.231206054459</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8517551281841</v>
+        <v>717.8517551281758</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.749211262267</v>
+        <v>1006.749211262215</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.7987408919906</v>
+        <v>344.7987408919831</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995360673678105</v>
+        <v>0.9995360673678212</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832882013070156e-05</v>
+        <v>1.832882013070075e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606645870942161</v>
+        <v>0.02606645870942006</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8729,37 +8729,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02396191688001213</v>
+        <v>0.02396191691260134</v>
       </c>
       <c r="DO3" t="n">
-        <v>-2.12798996016035e-07</v>
+        <v>-2.127989959719498e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379701078343936</v>
+        <v>0.01379701078343838</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02510733300005791</v>
+        <v>0.02510733300008128</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.06286604786451339</v>
+        <v>0.06286604789712502</v>
       </c>
       <c r="DT3" t="n">
-        <v>-2.28891905429407e-12</v>
+        <v>-1.830743889819075e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.087812462447227</v>
+        <v>1.087812462632992</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.087812462447227</v>
+        <v>1.087812462632992</v>
       </c>
       <c r="DW3" t="n">
-        <v>528869.619484424</v>
+        <v>528869.6194866743</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.739856258971451</v>
+        <v>2.739856258835095</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8768,157 +8768,157 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>362738.9247229693</v>
+        <v>362738.9247057624</v>
       </c>
       <c r="EB3" t="n">
-        <v>1483.976233398309</v>
+        <v>1483.976233181253</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02453974795699215</v>
+        <v>0.02453974794970079</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.002167609839125731</v>
+        <v>0.002167609834024261</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01189015978285063</v>
+        <v>0.01189015978321833</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.03202685944101664</v>
+        <v>0.03202685943780865</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04269102602198501</v>
+        <v>0.04269102601660969</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.1133154030419702</v>
+        <v>0.1133154030213617</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-8.171233134568467e-11</v>
+        <v>1.677380456754918e-12</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9438158167801302</v>
+        <v>0.9438158167780026</v>
       </c>
       <c r="EL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM3" t="n">
-        <v>184.2925191995731</v>
+        <v>184.2925193061247</v>
       </c>
       <c r="EN3" t="n">
-        <v>150.0066171546127</v>
+        <v>150.0066172116311</v>
       </c>
       <c r="EO3" t="n">
-        <v>-107.0595509179563</v>
+        <v>-107.059551021483</v>
       </c>
       <c r="EP3" t="n">
-        <v>-35.51540670293937</v>
+        <v>-35.51540671883961</v>
       </c>
       <c r="EQ3" t="n">
-        <v>310.9396296353478</v>
+        <v>310.9396297535378</v>
       </c>
       <c r="ER3" t="n">
-        <v>150.0066171546127</v>
+        <v>150.0066172116311</v>
       </c>
       <c r="ES3" t="n">
-        <v>-272.3627509179563</v>
+        <v>-272.362751021483</v>
       </c>
       <c r="ET3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EU3" t="n">
-        <v>220.3504270865966</v>
+        <v>220.3504270552699</v>
       </c>
       <c r="EV3" t="n">
-        <v>45839.58336119517</v>
+        <v>45839.5833361539</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.7252650972741405</v>
+        <v>0.725265096981061</v>
       </c>
       <c r="EX3" t="n">
-        <v>283213.1475212828</v>
+        <v>283213.1474989159</v>
       </c>
       <c r="EY3" t="n">
-        <v>346417.0484583058</v>
+        <v>346417.0484269526</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3804.831655079842</v>
+        <v>3804.831655094246</v>
       </c>
       <c r="FA3" t="n">
-        <v>-491979.2317311396</v>
+        <v>-491979.2316464738</v>
       </c>
       <c r="FB3" t="n">
-        <v>715.794709950766</v>
+        <v>715.7947099503934</v>
       </c>
       <c r="FC3" t="n">
-        <v>1004.122146497033</v>
+        <v>1004.122146496401</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.402807442606133</v>
+        <v>1.40280744260598</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9992490799066788</v>
+        <v>0.9992490799066657</v>
       </c>
       <c r="FF3" t="n">
-        <v>297.6514604829151</v>
+        <v>297.6514604617366</v>
       </c>
       <c r="FG3" t="n">
-        <v>64255.87080951764</v>
+        <v>64255.87077440802</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.556278029387284e-05</v>
+        <v>1.556278030237639e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>45805.19667770169</v>
+        <v>45805.19665267855</v>
       </c>
       <c r="FJ3" t="n">
-        <v>2.183158402388888e-05</v>
+        <v>2.183158403581535e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.00455173584096562</v>
+        <v>0.004551735841610745</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.445258837424412e-05</v>
+        <v>1.44525883725328e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02016346878127883</v>
+        <v>0.02016346877870489</v>
       </c>
       <c r="FN3" t="n">
-        <v>45839.58336119517</v>
+        <v>45839.5833361539</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.7252650972741405</v>
+        <v>0.725265096981061</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.7252650972741405</v>
+        <v>0.725265096981061</v>
       </c>
       <c r="FQ3" t="n">
-        <v>283213.1475212828</v>
+        <v>283213.1474989159</v>
       </c>
       <c r="FR3" t="n">
-        <v>346417.0484583058</v>
+        <v>346417.0484269526</v>
       </c>
       <c r="FS3" t="n">
-        <v>3804.831655079842</v>
+        <v>3804.831655094246</v>
       </c>
       <c r="FT3" t="n">
-        <v>715.794709950766</v>
+        <v>715.7947099503934</v>
       </c>
       <c r="FU3" t="n">
-        <v>1004.122146497033</v>
+        <v>1004.122146496401</v>
       </c>
       <c r="FV3" t="n">
-        <v>297.6514604829151</v>
+        <v>297.6514604617366</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.9992490799066788</v>
+        <v>0.9992490799066657</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.445258837424412e-05</v>
+        <v>1.44525883725328e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02016346878127883</v>
+        <v>0.02016346877870489</v>
       </c>
       <c r="FZ3" t="inlineStr">
         <is>
@@ -8929,97 +8929,97 @@
         <v>1</v>
       </c>
       <c r="GB3" t="n">
-        <v>237.3114091675608</v>
+        <v>237.3114091558637</v>
       </c>
       <c r="GC3" t="n">
-        <v>59381.83361194412</v>
+        <v>59381.83359875366</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.8723469057892753</v>
+        <v>0.8723469056384956</v>
       </c>
       <c r="GE3" t="n">
-        <v>295327.5624058123</v>
+        <v>295327.562397465</v>
       </c>
       <c r="GF3" t="n">
-        <v>363398.9147747613</v>
+        <v>363398.914763059</v>
       </c>
       <c r="GG3" t="n">
-        <v>3804.831655069913</v>
+        <v>3804.831655084317</v>
       </c>
       <c r="GH3" t="n">
-        <v>-539531.0469352226</v>
+        <v>-539531.0469058374</v>
       </c>
       <c r="GI3" t="n">
-        <v>716.0356268601037</v>
+        <v>716.0356268598891</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1004.470097518707</v>
+        <v>1004.470097518348</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.402821395805989</v>
+        <v>1.402821395805908</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9992853730783841</v>
+        <v>0.9992853730783885</v>
       </c>
       <c r="GM3" t="n">
-        <v>308.9074869107362</v>
+        <v>308.9074869031155</v>
       </c>
       <c r="GN3" t="n">
-        <v>83242.68761036902</v>
+        <v>83242.6875918739</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.201306719793411e-05</v>
+        <v>1.201306720060321e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>59339.47675679842</v>
+        <v>59339.4767436176</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.685218769451707e-05</v>
+        <v>1.685218769826037e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.004227046524592849</v>
+        <v>0.004227046524800128</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.536610270670494e-05</v>
+        <v>1.536610270608309e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.02154126949978479</v>
+        <v>0.02154126949884366</v>
       </c>
       <c r="GU3" t="n">
-        <v>59381.83361194412</v>
+        <v>59381.83359875366</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.8723469057892753</v>
+        <v>0.8723469056384956</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.8723469057892753</v>
+        <v>0.8723469056384956</v>
       </c>
       <c r="GX3" t="n">
-        <v>295327.5624058123</v>
+        <v>295327.562397465</v>
       </c>
       <c r="GY3" t="n">
-        <v>363398.9147747613</v>
+        <v>363398.914763059</v>
       </c>
       <c r="GZ3" t="n">
-        <v>3804.831655069913</v>
+        <v>3804.831655084317</v>
       </c>
       <c r="HA3" t="n">
-        <v>716.0356268601037</v>
+        <v>716.0356268598891</v>
       </c>
       <c r="HB3" t="n">
-        <v>1004.470097518707</v>
+        <v>1004.470097518348</v>
       </c>
       <c r="HC3" t="n">
-        <v>308.9074869107362</v>
+        <v>308.9074869031155</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.9992853730783841</v>
+        <v>0.9992853730783885</v>
       </c>
       <c r="HE3" t="n">
-        <v>1.536610270670494e-05</v>
+        <v>1.536610270608309e-05</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.02154126949978479</v>
+        <v>0.02154126949884366</v>
       </c>
       <c r="HG3" t="inlineStr">
         <is>
@@ -9030,97 +9030,97 @@
         <v>1</v>
       </c>
       <c r="HI3" t="n">
-        <v>268.6195007485724</v>
+        <v>268.6195007541451</v>
       </c>
       <c r="HJ3" t="n">
-        <v>91532.89074863819</v>
+        <v>91532.89075069016</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.187800466557757</v>
+        <v>1.187800466559677</v>
       </c>
       <c r="HL3" t="n">
-        <v>317697.9443214455</v>
+        <v>317697.9443254396</v>
       </c>
       <c r="HM3" t="n">
-        <v>394758.7750970894</v>
+        <v>394758.7751026865</v>
       </c>
       <c r="HN3" t="n">
-        <v>3804.831655069913</v>
+        <v>3804.831655084317</v>
       </c>
       <c r="HO3" t="n">
-        <v>-627293.2045201551</v>
+        <v>-627293.2045396306</v>
       </c>
       <c r="HP3" t="n">
-        <v>716.7837337686956</v>
+        <v>716.7837337688559</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1005.421836708234</v>
+        <v>1005.421836708352</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.402685062929569</v>
+        <v>1.402685062929419</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9994013208079899</v>
+        <v>0.9994013208080463</v>
       </c>
       <c r="HT3" t="n">
-        <v>328.6756296263296</v>
+        <v>328.6756296297399</v>
       </c>
       <c r="HU3" t="n">
-        <v>128315.316245439</v>
+        <v>128315.3162483091</v>
       </c>
       <c r="HV3" t="n">
-        <v>7.793301916407387e-06</v>
+        <v>7.793301916233069e-06</v>
       </c>
       <c r="HW3" t="n">
-        <v>91478.35079775278</v>
+        <v>91478.3507998087</v>
       </c>
       <c r="HX3" t="n">
-        <v>1.093154818904503e-05</v>
+        <v>1.093154818879935e-05</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.003735258343500589</v>
+        <v>0.00373525834342261</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.698920454324731e-05</v>
+        <v>1.698920454352869e-05</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.02400936429215917</v>
+        <v>0.02400936429258872</v>
       </c>
       <c r="IB3" t="n">
-        <v>91532.89074863819</v>
+        <v>91532.89075069016</v>
       </c>
       <c r="IC3" t="n">
-        <v>1.187800466557757</v>
+        <v>1.187800466559677</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.187800466557757</v>
+        <v>1.187800466559677</v>
       </c>
       <c r="IE3" t="n">
-        <v>317697.9443214455</v>
+        <v>317697.9443254396</v>
       </c>
       <c r="IF3" t="n">
-        <v>394758.7750970894</v>
+        <v>394758.7751026865</v>
       </c>
       <c r="IG3" t="n">
-        <v>3804.831655069913</v>
+        <v>3804.831655084317</v>
       </c>
       <c r="IH3" t="n">
-        <v>716.7837337686956</v>
+        <v>716.7837337688559</v>
       </c>
       <c r="II3" t="n">
-        <v>1005.421836708234</v>
+        <v>1005.421836708352</v>
       </c>
       <c r="IJ3" t="n">
-        <v>328.6756296263296</v>
+        <v>328.6756296297399</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.9994013208079899</v>
+        <v>0.9994013208080463</v>
       </c>
       <c r="IL3" t="n">
-        <v>1.698920454324731e-05</v>
+        <v>1.698920454352869e-05</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.02400936429215917</v>
+        <v>0.02400936429258872</v>
       </c>
       <c r="IN3" t="inlineStr">
         <is>
@@ -9131,52 +9131,52 @@
         <v>1</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.027099108192838</v>
+        <v>0.02709910824965041</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002463395525126429</v>
+        <v>0.002463395520166272</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01189775204997357</v>
+        <v>0.01189775205034205</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03198341153483886</v>
+        <v>0.03198341153162765</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04273691830593378</v>
+        <v>0.04273691830058814</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1161805856087106</v>
+        <v>0.1161805856523745</v>
       </c>
       <c r="IV3" t="n">
-        <v>4.92419577335923e-11</v>
+        <v>5.354085230724337e-11</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.619155434011893</v>
+        <v>0.6191554344139213</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.044643386364958</v>
+        <v>1.044643386836361</v>
       </c>
       <c r="IY3" t="n">
-        <v>406632.074929755</v>
+        <v>406632.0749681473</v>
       </c>
       <c r="IZ3" t="n">
-        <v>2.739856259040303</v>
+        <v>2.739856258974563</v>
       </c>
       <c r="JA3" t="n">
-        <v>381096.2011319693</v>
+        <v>381096.2011375665</v>
       </c>
       <c r="JB3" t="n">
         <v>0</v>
       </c>
       <c r="JC3" t="n">
-        <v>342881.807975889</v>
+        <v>342881.8079416863</v>
       </c>
       <c r="JD3" t="n">
-        <v>2819.847040075867</v>
+        <v>2819.847043924092</v>
       </c>
       <c r="JE3" t="n">
-        <v>6.46776716241515</v>
+        <v>6.467767154290456</v>
       </c>
     </row>
   </sheetData>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4107228769282394</v>
+        <v>0.410722876914173</v>
       </c>
     </row>
     <row r="3">
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4301928121009288</v>
+        <v>0.430192812211904</v>
       </c>
     </row>
   </sheetData>
@@ -10316,20 +10316,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The relative error between two consecutive iterates is at most 0.000000</t>
+          <t>The solution converged.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.79820694259923e-10</v>
+        <v>7.67982196125677e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>9.58305967425603e-11</v>
+        <v>5.762758342931991e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
